--- a/Expert-monitor-acte-noi/temp2.xlsx
+++ b/Expert-monitor-acte-noi/temp2.xlsx
@@ -16,97 +16,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
-    <x:t xml:space="preserve">(87/6.585.043) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2021-08-04 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(82/6.625.666) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(79/6.625.638) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(77/6.625.635) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(72/6.625.630) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(69/6.625.627) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(62/6.625.599) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(76/6.625.634) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(71/6.625.629) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(7/6.585.013) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(64/6.625.611) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(85/6.625.833) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(65/6.625.612) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(9/6.585.026) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(70/6.625.628) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(68/6.625.626) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(86/6.625.841) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(78/6.625.636) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(73/6.625.631) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(66/6.625.624) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(88/6.585.109) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(80/6.625.639) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(8/6.585.025) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(81/6.625.640) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(75/6.625.633) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(67/6.625.625) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(63/6.625.610) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(84/6.625.637) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(83/6.625.756) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(74/6.625.632) </x:t>
+    <x:t xml:space="preserve">(48/6.628.297) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2021-08-05 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(38/6.627.711) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(33/6.586.841) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(30/6.586.813) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(29/6.586.812) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(23/6.586.800) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(45/6.628.260) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(43/6.628.255) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(4/6.586.046) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(39/6.628.203) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(3/6.647.355) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(25/6.586.806) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(44/6.628.259) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(40/6.628.204) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(24/6.586.805) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(35/6.586.843) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(31/6.586.814) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(26/6.586.807) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(46/6.628.261) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(22/6.586.799) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(41/6.628.246) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(36/6.586.856) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(34/6.586.842) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(32/6.586.826) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(28/6.586.809) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(27/6.586.808) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(47/6.628.262) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(42/6.628.254) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(37/6.627.702) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(21/6.586.603) </x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Expert-monitor-acte-noi/temp2.xlsx
+++ b/Expert-monitor-acte-noi/temp2.xlsx
@@ -16,97 +16,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
-    <x:t xml:space="preserve">(48/6.628.297) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2021-08-05 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(38/6.627.711) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(33/6.586.841) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(30/6.586.813) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(29/6.586.812) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(23/6.586.800) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(45/6.628.260) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(43/6.628.255) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(4/6.586.046) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(39/6.628.203) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(3/6.647.355) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(25/6.586.806) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(44/6.628.259) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(40/6.628.204) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(24/6.586.805) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(35/6.586.843) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(31/6.586.814) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(26/6.586.807) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(46/6.628.261) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(22/6.586.799) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(41/6.628.246) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(36/6.586.856) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(34/6.586.842) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(32/6.586.826) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(28/6.586.809) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(27/6.586.808) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(47/6.628.262) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(42/6.628.254) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(37/6.627.702) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(21/6.586.603) </x:t>
+    <x:t xml:space="preserve">(7/6.588.322) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2021-08-06 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(62/6.632.737) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(61/6.632.738) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(6/6.588.315) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(41/6.630.493) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(59/6.649.020) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(54/6.648.229) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(42/6.630.494) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(40/6.630.488) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(39/6.630.485) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(45/6.630.573) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(52/6.646.077) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(50/6.643.832) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(5/6.588.314) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(53/6.646.078) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(49/6.633.759) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(9/6.588.328) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(8/6.588.323) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(56/6.648.379) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(48/6.630.712) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(43/6.630.496) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(60/6.649.132) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(55/6.648.329) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(51/6.644.648) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(47/6.630.635) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(58/6.649.017) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(57/6.648.984) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(46/6.630.574) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(44/6.630.538) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(4/6.588.310) </x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Expert-monitor-acte-noi/temp2.xlsx
+++ b/Expert-monitor-acte-noi/temp2.xlsx
@@ -16,97 +16,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
-    <x:t xml:space="preserve">(7/6.588.322) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2021-08-06 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(62/6.632.737) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(61/6.632.738) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(6/6.588.315) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(41/6.630.493) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(59/6.649.020) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(54/6.648.229) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(42/6.630.494) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(40/6.630.488) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(39/6.630.485) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(45/6.630.573) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(52/6.646.077) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(50/6.643.832) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(5/6.588.314) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(53/6.646.078) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(49/6.633.759) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(9/6.588.328) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(8/6.588.323) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(56/6.648.379) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(48/6.630.712) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(43/6.630.496) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(60/6.649.132) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(55/6.648.329) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(51/6.644.648) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(47/6.630.635) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(58/6.649.017) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(57/6.648.984) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(46/6.630.574) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(44/6.630.538) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(4/6.588.310) </x:t>
+    <x:t xml:space="preserve">(88/6.589.365) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2021-08-09 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(84/6.589.360) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(98/6.589.606) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(94/6.589.515) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(9/6.588.152) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(86/6.589.362) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(96/6.589.519) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(17/6.590.281) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(14/6.590.273) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(1/6.589.689) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(92/6.589.369) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(89/6.589.366) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(15/6.590.279) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(95/6.589.516) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(93/6.589.451) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(82/6.589.351) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(18/6.590.283) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(16/6.590.280) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(12/6.590.265) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(11/6.590.228) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(99/6.589.607) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(19/6.590.284) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(10/6.590.188) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(97/6.589.520) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(91/6.589.368) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(90/6.589.367) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(87/6.589.363) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(83/6.589.352) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(13/6.590.266) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(85/6.589.361) </x:t>
   </x:si>
 </x:sst>
 </file>
